--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y302"/>
+  <dimension ref="A1:Y305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="R301" s="2" t="inlineStr"/>
     </row>
-    <row r="302">
+    <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
           <t>A 40357-2023</t>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18176,6 +18176,177 @@
         <v>0</v>
       </c>
       <c r="R302" s="2" t="inlineStr"/>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>A 42733-2023</t>
+        </is>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C303" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" s="2" t="inlineStr"/>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>A 42673-2023</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" s="2" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>A 42753-2023</t>
+        </is>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18180,14 +18180,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 42733-2023</t>
+          <t>A 42673-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18237,14 +18237,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 42673-2023</t>
+          <t>A 42733-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y305"/>
+  <dimension ref="A1:Y308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,31 +635,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 50388-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 50388-2022.xlsx", "A 50388-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 50388-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 50388-2022.png", "A 50388-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/knärot/A 50388-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/knärot/A 50388-2022.png", "A 50388-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 50388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 50388-2022.docx", "A 50388-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 50388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 50388-2022.docx", "A 50388-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 50388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 50388-2022.docx", "A 50388-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 50388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 50388-2022.docx", "A 50388-2022")</f>
         <v/>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 50386-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 50386-2022.xlsx", "A 50386-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 50386-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 50386-2022.png", "A 50386-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 50386-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 50386-2022.docx", "A 50386-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 50386-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 50386-2022.docx", "A 50386-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 50386-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 50386-2022.docx", "A 50386-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 50386-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 50386-2022.docx", "A 50386-2022")</f>
         <v/>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -822,27 +822,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 13129-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 13129-2022.xlsx", "A 13129-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 13129-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 13129-2022.png", "A 13129-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 13129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 13129-2022.docx", "A 13129-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 13129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 13129-2022.docx", "A 13129-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 13129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 13129-2022.docx", "A 13129-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 13129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 13129-2022.docx", "A 13129-2022")</f>
         <v/>
       </c>
     </row>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,27 +909,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 8654-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 8654-2021.xlsx", "A 8654-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 8654-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 8654-2021.png", "A 8654-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 8654-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 8654-2021.docx", "A 8654-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 8654-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 8654-2021.docx", "A 8654-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 8654-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 8654-2021.docx", "A 8654-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 8654-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 8654-2021.docx", "A 8654-2021")</f>
         <v/>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,27 +995,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 27142-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 27142-2019.xlsx", "A 27142-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 27142-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 27142-2019.png", "A 27142-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 27142-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 27142-2019.docx", "A 27142-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 27142-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 27142-2019.docx", "A 27142-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 27142-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 27142-2019.docx", "A 27142-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 27142-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 27142-2019.docx", "A 27142-2019")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1081,27 +1081,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 7879-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 7879-2023.xlsx", "A 7879-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 7879-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 7879-2023.png", "A 7879-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 7879-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 7879-2023.docx", "A 7879-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 7879-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 7879-2023.docx", "A 7879-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 7879-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 7879-2023.docx", "A 7879-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 7879-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 7879-2023.docx", "A 7879-2023")</f>
         <v/>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1166,27 +1166,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 27514-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 27514-2020.xlsx", "A 27514-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 27514-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 27514-2020.png", "A 27514-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 27514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 27514-2020.docx", "A 27514-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 27514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 27514-2020.docx", "A 27514-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 27514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 27514-2020.docx", "A 27514-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 27514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 27514-2020.docx", "A 27514-2020")</f>
         <v/>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1251,27 +1251,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 36769-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 36769-2020.xlsx", "A 36769-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 36769-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 36769-2020.png", "A 36769-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 36769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 36769-2020.docx", "A 36769-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 36769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 36769-2020.docx", "A 36769-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 36769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 36769-2020.docx", "A 36769-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 36769-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 36769-2020.docx", "A 36769-2020")</f>
         <v/>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1336,27 +1336,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 57912-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 57912-2020.xlsx", "A 57912-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 57912-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 57912-2020.png", "A 57912-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 57912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 57912-2020.docx", "A 57912-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 57912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 57912-2020.docx", "A 57912-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 57912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 57912-2020.docx", "A 57912-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 57912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 57912-2020.docx", "A 57912-2020")</f>
         <v/>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,27 +1421,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 34171-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 34171-2021.xlsx", "A 34171-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 34171-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 34171-2021.png", "A 34171-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 34171-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 34171-2021.docx", "A 34171-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 34171-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 34171-2021.docx", "A 34171-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 34171-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 34171-2021.docx", "A 34171-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 34171-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 34171-2021.docx", "A 34171-2021")</f>
         <v/>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,27 +1506,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 42909-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 42909-2021.xlsx", "A 42909-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 42909-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 42909-2021.png", "A 42909-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 42909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 42909-2021.docx", "A 42909-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 42909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 42909-2021.docx", "A 42909-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 42909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 42909-2021.docx", "A 42909-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 42909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 42909-2021.docx", "A 42909-2021")</f>
         <v/>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,31 +1591,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 56668-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/artfynd/A 56668-2021.xlsx", "A 56668-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 56668-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/kartor/A 56668-2021.png", "A 56668-2021")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/knärot/A 56668-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/knärot/A 56668-2021.png", "A 56668-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 56668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomål/A 56668-2021.docx", "A 56668-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 56668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/klagomålsmail/A 56668-2021.docx", "A 56668-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 56668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsyn/A 56668-2021.docx", "A 56668-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 56668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SODERKOPING/tillsynsmail/A 56668-2021.docx", "A 56668-2021")</f>
         <v/>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="R304" s="2" t="inlineStr"/>
     </row>
-    <row r="305">
+    <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
           <t>A 42753-2023</t>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18347,6 +18347,177 @@
         <v>0</v>
       </c>
       <c r="R305" s="2" t="inlineStr"/>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>A 43546-2023</t>
+        </is>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" s="2" t="inlineStr"/>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>A 43495-2023</t>
+        </is>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C307" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" s="2" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>A 43611-2023</t>
+        </is>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C308" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y308"/>
+  <dimension ref="A1:Y311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
       </c>
       <c r="R307" s="2" t="inlineStr"/>
     </row>
-    <row r="308">
+    <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
           <t>A 43611-2023</t>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18518,6 +18518,177 @@
         <v>0</v>
       </c>
       <c r="R308" s="2" t="inlineStr"/>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>A 44819-2023</t>
+        </is>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C309" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" s="2" t="inlineStr"/>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>A 45044-2023</t>
+        </is>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C310" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" s="2" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>A 45085-2023</t>
+        </is>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C311" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>SÖDERKÖPING</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45190</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45191</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45191</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45190</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45191</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45191</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45190</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45191</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45191</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45190</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45191</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45191</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt SÖDERKÖPING.xlsx
+++ b/Översikt SÖDERKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44866</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>44866</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44644</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>44246</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>43608</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44973</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43993</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44053</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44140</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>44431</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44481</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>43328</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>43406</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>43408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>43408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43486</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43516</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43528</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43553</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43563</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43661</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43674</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43674</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43684</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43696</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>43697</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>43697</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>43697</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>43698</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>43705</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>43705</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43706</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43719</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43745</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43760</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43767</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43774</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43777</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43795</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43797</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43803</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43807</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43832</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43846</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43859</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>43859</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>43859</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>43860</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>43861</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43865</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43867</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43899</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43899</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43901</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43902</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43910</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>43913</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43914</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43915</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43949</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43959</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43965</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>43971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44014</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44053</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44053</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44064</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44068</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44077</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44102</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44102</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44105</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44123</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44131</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44132</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44147</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44162</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>44223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44242</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>44245</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>44245</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>44266</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>44294</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>44342</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>44356</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44368</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>44379</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44379</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44379</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44379</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44420</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44424</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44424</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44447</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44447</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44447</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44459</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44474</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44474</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44480</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44494</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44495</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44495</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44515</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>44517</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44530</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44540</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44567</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44567</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44572</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44587</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44618</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44627</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44672</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44678</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44685</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44692</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44721</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44722</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>44728</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44728</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44761</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44775</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44798</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44798</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44805</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44813</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44855</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44855</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44862</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44865</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44865</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44874</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44874</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44882</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44883</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44888</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44890</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44890</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44890</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44900</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>44903</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44904</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44904</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44911</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44911</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44911</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44925</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44925</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>44936</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44936</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44939</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44942</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44943</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44945</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>44945</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>44946</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44946</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>44946</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>44950</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>44950</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44953</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>44958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44964</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44965</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44965</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44966</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44966</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44966</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44966</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44966</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44984</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>44984</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44992</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45006</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45009</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45010</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45014</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45015</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45016</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45019</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45028</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45028</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45041</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45055</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45055</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45055</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45055</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45055</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45056</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45056</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45058</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>45061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45061</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45063</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>45077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45080</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45090</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45092</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>45092</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>45093</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45097</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45097</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>45098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>45099</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45099</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>45119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45119</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45119</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45119</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45119</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45119</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45160</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>45160</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45169</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45169</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>45169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>45184</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45184</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>45190</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45191</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45191</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
